--- a/Date.xlsx
+++ b/Date.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erza Scarlet\Documents\UiPath\Exam3\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erza Scarlet\Desktop\YearlyReportPerformer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4ECB1AB-B826-408F-BEBC-E875B406A96D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0852BE17-231B-43AE-8261-BC62ABD7CEFE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="2070" windowWidth="15375" windowHeight="7875" xr2:uid="{20854BE0-C9F5-4E35-BD88-02054AE0C17F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{20854BE0-C9F5-4E35-BD88-02054AE0C17F}"/>
   </bookViews>
   <sheets>
     <sheet name="Dates" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Friday</t>
-  </si>
-  <si>
-    <t>Saturday</t>
   </si>
   <si>
     <t>Labor Day</t>
@@ -418,7 +415,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,19 +462,16 @@
       <c r="A3" s="1">
         <v>43624</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43710</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
